--- a/resource/主角/声望表.xlsx
+++ b/resource/主角/声望表.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="2260" yWindow="160" windowWidth="21980" windowHeight="11960"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Prestige" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>声望等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,12 +28,28 @@
     <t>需求声望</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>need_prestige</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,7 +94,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -158,7 +177,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="7DC752"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -434,17 +453,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -456,116 +475,109 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>700</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>900</v>
+        <v>700</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>